--- a/biology/Botanique/Salicornia_depressa/Salicornia_depressa.xlsx
+++ b/biology/Botanique/Salicornia_depressa/Salicornia_depressa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salicorne de Virginie
 La Salicorne de Virginie, Salicornia depressa, est une espèce de plantes de la famille des Amaranthaceae que l'on ne rencontre qu'en Amérique du Nord.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est une plante comestible, crue en salade, ou cuite en accompagnement[2]
+C'est une plante comestible, crue en salade, ou cuite en accompagnement
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1916 par le botaniste américain Paul Carpenter Standley (1884-1963). Elle était autrefois confondue avec la Salicorne d'Europe (Salicornia europaea)[3]. Elle est parfois confondue avec la salicornia maritima[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1916 par le botaniste américain Paul Carpenter Standley (1884-1963). Elle était autrefois confondue avec la Salicorne d'Europe (Salicornia europaea). Elle est parfois confondue avec la salicornia maritima.
 Synonyme: Salicornia virginica
 </t>
         </is>
